--- a/tables/range_corr.xlsx
+++ b/tables/range_corr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>county splits</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>counties split</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -546,11 +541,6 @@
           <t>(-0.80,-0.24)</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>(-0.77,-0.25)</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -608,11 +598,6 @@
           <t>(-0.98,-0.92)</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>(-0.97,-0.88)</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -670,11 +655,6 @@
           <t>(0.77,0.88)</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>(0.72,0.86)</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -732,11 +712,6 @@
           <t>(-0.34,0.23)</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>(-0.33,0.22)</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -794,11 +769,6 @@
           <t>(-0.24,0.36)</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>(-0.23,0.34)</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -856,11 +826,6 @@
           <t>(-0.31,0.20)</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>(-0.30,0.19)</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -918,11 +883,6 @@
           <t>(-0.30,0.25)</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>(-0.29,0.24)</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -980,11 +940,6 @@
           <t>(-0.23,0.45)</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>(-0.22,0.43)</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1042,11 +997,6 @@
           <t>(-0.69,-0.04)</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>(-0.65,-0.04)</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1100,73 +1050,6 @@
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>(1.00,1.00)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>(0.98,0.99)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>counties split</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(-0.77,-0.25)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>(-0.97,-0.88)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>(0.72,0.86)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>(-0.33,0.22)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>(-0.23,0.34)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>(-0.30,0.19)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(-0.29,0.24)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>(-0.22,0.43)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>(-0.65,-0.04)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>(0.98,0.99)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>(1.00,1.00)</t>
         </is>

--- a/tables/range_corr.xlsx
+++ b/tables/range_corr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>county splits</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MMD coalition</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -498,47 +503,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.39,0.87)</t>
+          <t>(0.38,0.87)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(-0.88,-0.29)</t>
+          <t>(-0.88,-0.28)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.13,0.26)</t>
+          <t>(-0.13,0.22)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.27,0.13)</t>
+          <t>(-0.23,0.13)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(-0.16,0.25)</t>
+          <t>(-0.12,0.24)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(-0.21,0.20)</t>
+          <t>(-0.16,0.21)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(-0.37,0.19)</t>
+          <t>(-0.35,0.16)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(-0.04,0.60)</t>
+          <t>(-0.03,0.59)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>(-0.80,-0.24)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>(-0.22,0.23)</t>
         </is>
       </c>
     </row>
@@ -550,7 +560,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.39,0.87)</t>
+          <t>(0.38,0.87)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -565,37 +575,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.23,0.33)</t>
+          <t>(-0.23,0.31)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.35,0.24)</t>
+          <t>(-0.33,0.23)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(-0.20,0.31)</t>
+          <t>(-0.16,0.31)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(-0.25,0.29)</t>
+          <t>(-0.21,0.28)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>(-0.44,0.22)</t>
+          <t>(-0.42,0.19)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(0.04,0.69)</t>
+          <t>(0.05,0.69)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>(-0.98,-0.92)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>(-0.31,0.26)</t>
         </is>
       </c>
     </row>
@@ -607,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(-0.88,-0.29)</t>
+          <t>(-0.88,-0.28)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -622,37 +637,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(-0.36,0.26)</t>
+          <t>(-0.32,0.26)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(-0.27,0.37)</t>
+          <t>(-0.27,0.33)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(-0.27,0.19)</t>
+          <t>(-0.27,0.14)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(-0.33,0.27)</t>
+          <t>(-0.33,0.22)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>(-0.23,0.39)</t>
+          <t>(-0.17,0.38)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>(-0.63,-0.06)</t>
+          <t>(-0.62,-0.07)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>(0.77,0.88)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>(-0.25,0.29)</t>
         </is>
       </c>
     </row>
@@ -664,17 +684,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(-0.13,0.26)</t>
+          <t>(-0.13,0.22)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(-0.23,0.33)</t>
+          <t>(-0.23,0.31)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(-0.36,0.26)</t>
+          <t>(-0.32,0.26)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -689,27 +709,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(-0.71,0.22)</t>
+          <t>(-0.69,0.22)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(-0.84,-0.33)</t>
+          <t>(-0.84,-0.32)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>(-0.15,0.30)</t>
+          <t>(-0.13,0.29)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(-0.41,0.22)</t>
+          <t>(-0.39,0.22)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(-0.34,0.23)</t>
+          <t>(-0.31,0.22)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>(-0.18,0.06)</t>
         </is>
       </c>
     </row>
@@ -721,17 +746,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(-0.27,0.13)</t>
+          <t>(-0.23,0.13)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(-0.35,0.24)</t>
+          <t>(-0.33,0.23)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(-0.27,0.37)</t>
+          <t>(-0.27,0.33)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -746,27 +771,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(-0.22,0.71)</t>
+          <t>(-0.23,0.69)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(0.33,0.84)</t>
+          <t>(0.31,0.84)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>(-0.30,0.16)</t>
+          <t>(-0.30,0.14)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>(-0.23,0.41)</t>
+          <t>(-0.22,0.40)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(-0.24,0.36)</t>
+          <t>(-0.23,0.33)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>(-0.05,0.17)</t>
         </is>
       </c>
     </row>
@@ -778,27 +808,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(-0.16,0.25)</t>
+          <t>(-0.12,0.24)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(-0.20,0.31)</t>
+          <t>(-0.16,0.31)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(-0.27,0.19)</t>
+          <t>(-0.27,0.14)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(-0.71,0.22)</t>
+          <t>(-0.69,0.22)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(-0.22,0.71)</t>
+          <t>(-0.23,0.69)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -808,22 +838,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(-0.41,0.85)</t>
+          <t>(-0.43,0.84)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>(-0.69,0.52)</t>
+          <t>(-0.69,0.53)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>(-0.30,0.64)</t>
+          <t>(-0.29,0.64)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(-0.31,0.20)</t>
+          <t>(-0.31,0.16)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>(-0.01,0.19)</t>
         </is>
       </c>
     </row>
@@ -835,32 +870,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(-0.21,0.20)</t>
+          <t>(-0.16,0.21)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(-0.25,0.29)</t>
+          <t>(-0.21,0.28)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(-0.33,0.27)</t>
+          <t>(-0.33,0.22)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(-0.84,-0.33)</t>
+          <t>(-0.84,-0.32)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.33,0.84)</t>
+          <t>(0.31,0.84)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(-0.41,0.85)</t>
+          <t>(-0.43,0.84)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -870,17 +905,22 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(-0.48,0.35)</t>
+          <t>(-0.47,0.35)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(-0.34,0.59)</t>
+          <t>(-0.30,0.58)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(-0.30,0.25)</t>
+          <t>(-0.28,0.21)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>(-0.31,0.26)</t>
         </is>
       </c>
     </row>
@@ -892,37 +932,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(-0.37,0.19)</t>
+          <t>(-0.35,0.16)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(-0.44,0.22)</t>
+          <t>(-0.42,0.19)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(-0.23,0.39)</t>
+          <t>(-0.17,0.38)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(-0.15,0.30)</t>
+          <t>(-0.13,0.29)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(-0.30,0.16)</t>
+          <t>(-0.30,0.14)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(-0.69,0.52)</t>
+          <t>(-0.69,0.53)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(-0.48,0.35)</t>
+          <t>(-0.47,0.35)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -932,12 +972,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>(-0.68,-0.30)</t>
+          <t>(-0.67,-0.32)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(-0.23,0.45)</t>
+          <t>(-0.19,0.42)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>(-0.17,0.11)</t>
         </is>
       </c>
     </row>
@@ -949,42 +994,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(-0.04,0.60)</t>
+          <t>(-0.03,0.59)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(0.04,0.69)</t>
+          <t>(0.05,0.69)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(-0.63,-0.06)</t>
+          <t>(-0.62,-0.07)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(-0.41,0.22)</t>
+          <t>(-0.39,0.22)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(-0.23,0.41)</t>
+          <t>(-0.22,0.40)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(-0.30,0.64)</t>
+          <t>(-0.29,0.64)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(-0.34,0.59)</t>
+          <t>(-0.30,0.58)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>(-0.68,-0.30)</t>
+          <t>(-0.67,-0.32)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -994,7 +1039,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(-0.69,-0.04)</t>
+          <t>(-0.69,-0.05)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>(-0.07,0.34)</t>
         </is>
       </c>
     </row>
@@ -1021,35 +1071,102 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(-0.34,0.23)</t>
+          <t>(-0.31,0.22)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(-0.24,0.36)</t>
+          <t>(-0.23,0.33)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(-0.31,0.20)</t>
+          <t>(-0.31,0.16)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(-0.30,0.25)</t>
+          <t>(-0.28,0.21)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>(-0.23,0.45)</t>
+          <t>(-0.19,0.42)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>(-0.69,-0.04)</t>
+          <t>(-0.69,-0.05)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>(1.00,1.00)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>(-0.25,0.33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MMD coalition</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(-0.22,0.23)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(-0.31,0.26)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>(-0.25,0.29)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>(-0.18,0.06)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(-0.05,0.17)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(-0.01,0.19)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(-0.31,0.26)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(-0.17,0.11)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(-0.07,0.34)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>(-0.25,0.33)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>(1.00,1.00)</t>
         </is>
